--- a/sandbox/demo_2.xlsx
+++ b/sandbox/demo_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homer/git/kproj/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290A2141-09A2-EA48-996B-F1DF883643B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFAA02D-A11D-3A40-979E-7EB41DA04E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="demo" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">demo!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">demo!$A$1:$C$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">demo!$D:$D</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">demo!$F$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
   <si>
     <t>a</t>
   </si>
@@ -614,21 +614,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -646,6 +632,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -667,18 +740,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44248.392050925926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{D688EA80-C58E-6542-9147-F9A812883DEC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44251.397763078705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{164CA916-4A22-E246-BA0C-11F1D17A621D}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table7"/>
+    <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="referral" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="vic" numFmtId="0">
       <sharedItems count="3">
@@ -700,24 +768,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
-    <x v="0"/>
+    <n v="1"/>
     <x v="0"/>
     <d v="2020-06-07T00:00:00"/>
   </r>
   <r>
-    <x v="1"/>
+    <n v="2"/>
     <x v="1"/>
     <d v="2020-07-07T00:00:00"/>
   </r>
   <r>
-    <x v="2"/>
+    <n v="3"/>
     <x v="1"/>
     <d v="2020-07-10T00:00:00"/>
   </r>
   <r>
-    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <d v="2020-07-10T00:00:00"/>
+  </r>
+  <r>
+    <n v="4"/>
     <x v="2"/>
     <d v="2020-12-20T00:00:00"/>
   </r>
@@ -725,23 +798,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB8D9194-15AD-524F-ABB1-C8E0C1F9E05D}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF1D97E1-4C69-8B40-BAAF-0569E4890D0C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N1:O5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="4">
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -761,13 +826,13 @@
   </rowFields>
   <rowItems count="4">
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -792,11 +857,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{168AF7CC-B01F-A448-9677-41DE564B9AFC}" name="Table5" displayName="Table5" ref="A1:D8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{168AF7CC-B01F-A448-9677-41DE564B9AFC}" name="Table5" displayName="Table5" ref="A1:D9" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{89DB6A81-DC3F-8A4D-A007-BD52E94D3141}" name="referral"/>
     <tableColumn id="2" xr3:uid="{64E0FFCE-DA3A-C643-866C-E4E8AA805322}" name="vic"/>
-    <tableColumn id="3" xr3:uid="{4F6B7B48-10A4-4B44-B4F5-E22E261D0CF1}" name="date" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4F6B7B48-10A4-4B44-B4F5-E22E261D0CF1}" name="date" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{19E5C11C-459B-C84A-86C5-3524F65C0956}" name="perp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -804,24 +869,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7E1639FF-4F75-5346-A66D-3336984B9C5F}" name="Table6" displayName="Table6" ref="F1:H7" totalsRowShown="0">
-  <autoFilter ref="F1:H7" xr:uid="{9DB4CD72-1A95-334F-B0D6-C7A507E4CC39}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D484195-0198-2649-B8D6-254659CE74AE}" name="Table1" displayName="Table1" ref="F1:H8" totalsRowShown="0">
+  <autoFilter ref="F1:H8" xr:uid="{68C3300E-FCC2-B544-9F9F-2FC110A53EE0}">
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2DEF4575-48A3-5141-BB4D-E41D08531C92}" name="referral"/>
-    <tableColumn id="2" xr3:uid="{C0D72FAE-5809-3745-83A8-B04C3B69D47D}" name="vic"/>
-    <tableColumn id="3" xr3:uid="{F2741DAA-D8AD-0847-BF32-A1D21B837F2D}" name="date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D1BDBEF8-60D9-984B-846A-B7093C77B7BB}" name="referral"/>
+    <tableColumn id="2" xr3:uid="{FE53E4DF-1F53-7C40-AB9B-D8CBB4DC1C53}" name="vic"/>
+    <tableColumn id="3" xr3:uid="{61D8F361-C0F6-3144-9688-5F7969EEB57C}" name="date" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D514469B-F959-ED4E-AF99-AA70DB98A059}" name="Table7" displayName="Table7" ref="J1:L5" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="J1:L5" xr:uid="{584D0861-1EC8-F34A-B484-E3F086EB7525}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1EBF2EE2-7E89-B746-8759-ECED74F61911}" name="Table2" displayName="Table2" ref="J1:L6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="J1:L6" xr:uid="{3CED58E8-F0A7-C741-A200-9E46135DB94C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{57AE618E-582C-D343-ADFA-FDB0A862A528}" name="referral"/>
-    <tableColumn id="2" xr3:uid="{91C2FBF1-7162-B347-9023-572C12D2A03D}" name="vic"/>
-    <tableColumn id="3" xr3:uid="{12430F84-8160-854F-9716-5D1CDB114439}" name="date"/>
+    <tableColumn id="1" xr3:uid="{EFE72EA2-3968-3A4F-B200-707C1584821B}" name="referral" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9FB30F2A-6A00-644C-954C-DC4CC9D5CD53}" name="vic" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{117C6C77-FE0B-384F-9E18-722C78D68BED}" name="date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,14 +1195,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F83D0-C5C0-8849-8EEE-D551D73E07D1}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1206,7 +1278,7 @@
         <v>43989</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -1244,10 +1316,10 @@
         <v>44019</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1302,90 +1374,122 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="6">
-        <v>44185</v>
+        <v>44022</v>
       </c>
       <c r="J5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="8">
-        <v>44185</v>
+        <v>44022</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6">
+        <v>44022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
         <v>44185</v>
       </c>
-      <c r="F6">
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="7">
+        <v>44185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44185</v>
+      </c>
+      <c r="F7">
         <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>44201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>44201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>44242</v>
+        <v>44201</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
+        <v>44201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>44242</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
